--- a/data/lchsa/lchsa-Q2-2018.xlsx
+++ b/data/lchsa/lchsa-Q2-2018.xlsx
@@ -938,7 +938,9 @@
       <c r="AB6" t="n">
         <v>0</v>
       </c>
-      <c r="AC6" t="s"/>
+      <c r="AC6" t="n">
+        <v>913030409</v>
+      </c>
     </row>
     <row r="7" spans="1:29">
       <c r="A7" s="1" t="n">
